--- a/Word Runner/Assets/99. Assets/Assets_List.xlsx
+++ b/Word Runner/Assets/99. Assets/Assets_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GVE03\Github\Word-Runner\Word Runner\Assets\99. Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F19BA3-C654-4151-BD10-16B324D28EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A1E8C4-F10E-4A10-A09D-EAACE97761D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2235" yWindow="3945" windowWidth="16245" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>에셋 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -71,6 +71,21 @@
   </si>
   <si>
     <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.turbosquid.com/3d-models/3d-character-rigged-1626654</t>
+  </si>
+  <si>
+    <t>3D Taekwondo fighter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 모델링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 캐릭터 모델</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -170,13 +185,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -453,13 +487,14 @@
   <dimension ref="B3:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="21.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="19.25" customWidth="1"/>
     <col min="6" max="6" width="18.125" customWidth="1"/>
@@ -490,100 +525,262 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
+      <c r="B5" s="5">
+        <v>45251</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="8"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="8"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
